--- a/Map1.xlsx
+++ b/Map1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="totaal" sheetId="6" r:id="rId10"/>
     <sheet name="Toets1 GameScene" sheetId="15" r:id="rId11"/>
     <sheet name="Blad1" sheetId="16" r:id="rId12"/>
+    <sheet name="Blad6" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
   <si>
     <t>dag</t>
   </si>
@@ -304,6 +305,24 @@
   </si>
   <si>
     <t>Log in als de nieuwe gebruiker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opdracht: Maak uitsluitend voor de gebruikersrol coworker een link genaamd pandabeer. Na het klikken op deze link kom je op de pagina pandabeer. Op deze pagina is een afbeelding van een pandabeer te zien </t>
+  </si>
+  <si>
+    <t>Maak een link pandabeer uitsluitend voor de gebruikersrol coworker</t>
+  </si>
+  <si>
+    <t>Maak een pagina coworker.php</t>
+  </si>
+  <si>
+    <t>Zoek een foto van een pandabeer op internet</t>
+  </si>
+  <si>
+    <t>Zorg dat deze foto zichtbaar is op de pagina</t>
+  </si>
+  <si>
+    <t>Wanneer je op deze foto klikt wordt je doorgestuurd naar de volgende website: http://nl.wikipedia.org/wiki/Fiat_Panda</t>
   </si>
 </sst>
 </file>
@@ -374,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -481,6 +500,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -1318,7 +1340,7 @@
         <v>87</v>
       </c>
       <c r="G7" s="41">
-        <f t="shared" ref="G7:G18" si="0">D7-C7</f>
+        <f t="shared" ref="G7:G12" si="0">D7-C7</f>
         <v>6.9444444444444198E-4</v>
       </c>
     </row>
@@ -1330,7 +1352,7 @@
         <v>0.3659722222222222</v>
       </c>
       <c r="D8" s="39">
-        <f t="shared" ref="D8:D18" si="1">C8+TIME(0,1,0)</f>
+        <f t="shared" ref="D8:D12" si="1">C8+TIME(0,1,0)</f>
         <v>0.36666666666666664</v>
       </c>
       <c r="E8" s="37">
@@ -1348,7 +1370,7 @@
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="39">
-        <f t="shared" ref="C9:C18" si="2">D8+TIME(0,1,0)</f>
+        <f t="shared" ref="C9:C12" si="2">D8+TIME(0,1,0)</f>
         <v>0.36736111111111108</v>
       </c>
       <c r="D9" s="39">
@@ -1508,6 +1530,249 @@
       <c r="E20" s="14"/>
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="103.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="396" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="38">
+        <v>41667</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="39">
+        <f t="shared" ref="D6:D12" si="0">C6+TIME(0,1,0)</f>
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" ref="G6:G12" si="1">D6-C6</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39">
+        <f t="shared" ref="C7:C12" si="2">D6+TIME(0,1,0)</f>
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="D7" s="39">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39">
+        <f t="shared" si="2"/>
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D8" s="39">
+        <f t="shared" si="0"/>
+        <v>0.36805555555555552</v>
+      </c>
+      <c r="E8" s="37">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39">
+        <f t="shared" si="2"/>
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="D9" s="39">
+        <f t="shared" si="0"/>
+        <v>0.36944444444444441</v>
+      </c>
+      <c r="E9" s="37">
+        <v>4</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39">
+        <f t="shared" si="2"/>
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="D10" s="39">
+        <f t="shared" si="0"/>
+        <v>0.37083333333333329</v>
+      </c>
+      <c r="E10" s="37">
+        <v>5</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39">
+        <f t="shared" si="2"/>
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D11" s="39">
+        <f t="shared" si="0"/>
+        <v>0.37222222222222218</v>
+      </c>
+      <c r="E11" s="37">
+        <v>6</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39">
+        <f t="shared" si="2"/>
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" si="0"/>
+        <v>0.37361111111111106</v>
+      </c>
+      <c r="E12" s="37">
+        <v>7</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
